--- a/medicine/Psychotrope/Denis_Dubourdieu/Denis_Dubourdieu.xlsx
+++ b/medicine/Psychotrope/Denis_Dubourdieu/Denis_Dubourdieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denis Dubourdieu est un œnologue français, né le 1er juillet 1949[1] à Talence en Gironde et mort le 26 juillet 2016[2] à Bordeaux (Gironde)[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denis Dubourdieu est un œnologue français, né le 1er juillet 1949 à Talence en Gironde et mort le 26 juillet 2016 à Bordeaux (Gironde),.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denis Dubourdieu naît le 1er juillet 1949 à Barsac[5]. Il est issu d'une famille de viticulteurs[6]. Ingénieur agronome, il soutient sa thèse de doctorat, consacrée à la composition macromoléculaire des vins liquoreux, en 1982[5],[7],[8]. Dubourdieu détient également une maîtrise en science économiques[9]. Il enseigne l'œnologie à l'université de Bordeaux. Connu pour ses travaux sur les vins blancs, il est surnommé « le pape du blanc »[6]. Dubourdieu est directeur général de l'institut des sciences de la vigne et du vin (ISVV), situé à Villenave-d'Ornon[9].
-Dubourdieu intervient comme consultant auprès de nombreux propriétaires de domaines viticoles, comme la cave coopérative de Ribeauvillé en Alsace[10], les domaines prestigieux de Rayne-Vigneau, Yquem, ou encore Cheval Blanc[5]. Il possède lui-même plusieurs domaines, dont le château Reynon[7] et le château Doisy Daëne[6].
-En 2012, paraît Autour d'une bouteille avec Denis Dubourdieu : l'œnologie dans tous ses états, une série d'entretiens avec Gilles Berdin[11]. Avec Pascal Ribéreau-Gayon, il participe à la rédaction du Traité d'œnologie en deux volumes édité par les éditions Dunod.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denis Dubourdieu naît le 1er juillet 1949 à Barsac. Il est issu d'une famille de viticulteurs. Ingénieur agronome, il soutient sa thèse de doctorat, consacrée à la composition macromoléculaire des vins liquoreux, en 1982. Dubourdieu détient également une maîtrise en science économiques. Il enseigne l'œnologie à l'université de Bordeaux. Connu pour ses travaux sur les vins blancs, il est surnommé « le pape du blanc ». Dubourdieu est directeur général de l'institut des sciences de la vigne et du vin (ISVV), situé à Villenave-d'Ornon.
+Dubourdieu intervient comme consultant auprès de nombreux propriétaires de domaines viticoles, comme la cave coopérative de Ribeauvillé en Alsace, les domaines prestigieux de Rayne-Vigneau, Yquem, ou encore Cheval Blanc. Il possède lui-même plusieurs domaines, dont le château Reynon et le château Doisy Daëne.
+En 2012, paraît Autour d'une bouteille avec Denis Dubourdieu : l'œnologie dans tous ses états, une série d'entretiens avec Gilles Berdin. Avec Pascal Ribéreau-Gayon, il participe à la rédaction du Traité d'œnologie en deux volumes édité par les éditions Dunod.
 </t>
         </is>
       </c>
